--- a/applications/south_africa/NW_validation.xlsx
+++ b/applications/south_africa/NW_validation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="validation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>590</v>
+        <v>147</v>
       </c>
       <c r="B3">
-        <v>884</v>
+        <v>248</v>
       </c>
       <c r="C3">
-        <v>1301</v>
+        <v>384</v>
       </c>
       <c r="D3">
-        <v>2884</v>
+        <v>3608</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
